--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y451"/>
+  <dimension ref="A1:Y453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -640,31 +640,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 38897-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 38897-2022.xlsx", "A 38897-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 38897-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 38897-2022.png", "A 38897-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 38897-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 38897-2022.png", "A 38897-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 38897-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 38897-2022.docx", "A 38897-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 38897-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 38897-2022.docx", "A 38897-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 38897-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 38897-2022.docx", "A 38897-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 38897-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 38897-2022.docx", "A 38897-2022")</f>
         <v/>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,31 +743,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 10996-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 10996-2020.xlsx", "A 10996-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 10996-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 10996-2020.png", "A 10996-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 10996-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 10996-2020.png", "A 10996-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 10996-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 10996-2020.docx", "A 10996-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 10996-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 10996-2020.docx", "A 10996-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 10996-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 10996-2020.docx", "A 10996-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 10996-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 10996-2020.docx", "A 10996-2020")</f>
         <v/>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 38899-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 38899-2022.xlsx", "A 38899-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 38899-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 38899-2022.png", "A 38899-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 38899-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 38899-2022.png", "A 38899-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 38899-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 38899-2022.docx", "A 38899-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 38899-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 38899-2022.docx", "A 38899-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 38899-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 38899-2022.docx", "A 38899-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 38899-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 38899-2022.docx", "A 38899-2022")</f>
         <v/>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -946,27 +946,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 28168-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 28168-2021.xlsx", "A 28168-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 28168-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 28168-2021.png", "A 28168-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 28168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 28168-2021.docx", "A 28168-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 28168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 28168-2021.docx", "A 28168-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 28168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 28168-2021.docx", "A 28168-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 28168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 28168-2021.docx", "A 28168-2021")</f>
         <v/>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,27 +1042,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 47888-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 47888-2021.xlsx", "A 47888-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 47888-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 47888-2021.png", "A 47888-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 47888-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 47888-2021.docx", "A 47888-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 47888-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 47888-2021.docx", "A 47888-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 47888-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 47888-2021.docx", "A 47888-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 47888-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 47888-2021.docx", "A 47888-2021")</f>
         <v/>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,27 +1130,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 30023-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 30023-2020.xlsx", "A 30023-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 30023-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 30023-2020.png", "A 30023-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 30023-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 30023-2020.docx", "A 30023-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 30023-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 30023-2020.docx", "A 30023-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 30023-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 30023-2020.docx", "A 30023-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 30023-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 30023-2020.docx", "A 30023-2020")</f>
         <v/>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,27 +1222,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 26276-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 26276-2019.xlsx", "A 26276-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 26276-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 26276-2019.png", "A 26276-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 26276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 26276-2019.docx", "A 26276-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 26276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 26276-2019.docx", "A 26276-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 26276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 26276-2019.docx", "A 26276-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 26276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 26276-2019.docx", "A 26276-2019")</f>
         <v/>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,31 +1314,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 28169-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 28169-2021.xlsx", "A 28169-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 28169-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 28169-2021.png", "A 28169-2021")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 28169-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 28169-2021.png", "A 28169-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 28169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 28169-2021.docx", "A 28169-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 28169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 28169-2021.docx", "A 28169-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 28169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 28169-2021.docx", "A 28169-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 28169-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 28169-2021.docx", "A 28169-2021")</f>
         <v/>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1405,27 +1405,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 2356-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 2356-2023.xlsx", "A 2356-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 2356-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 2356-2023.png", "A 2356-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 2356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 2356-2023.docx", "A 2356-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 2356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 2356-2023.docx", "A 2356-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 2356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 2356-2023.docx", "A 2356-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 2356-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 2356-2023.docx", "A 2356-2023")</f>
         <v/>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1497,27 +1497,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 26303-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 26303-2023.xlsx", "A 26303-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 26303-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 26303-2023.png", "A 26303-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 26303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 26303-2023.docx", "A 26303-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 26303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 26303-2023.docx", "A 26303-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 26303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 26303-2023.docx", "A 26303-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 26303-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 26303-2023.docx", "A 26303-2023")</f>
         <v/>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,27 +1588,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 42882-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 42882-2020.xlsx", "A 42882-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 42882-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 42882-2020.png", "A 42882-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 42882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 42882-2020.docx", "A 42882-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 42882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 42882-2020.docx", "A 42882-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 42882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 42882-2020.docx", "A 42882-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 42882-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 42882-2020.docx", "A 42882-2020")</f>
         <v/>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,27 +1679,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 22410-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 22410-2021.xlsx", "A 22410-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 22410-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 22410-2021.png", "A 22410-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 22410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 22410-2021.docx", "A 22410-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 22410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 22410-2021.docx", "A 22410-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 22410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 22410-2021.docx", "A 22410-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 22410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 22410-2021.docx", "A 22410-2021")</f>
         <v/>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,27 +1765,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 45523-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 45523-2022.xlsx", "A 45523-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 45523-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 45523-2022.png", "A 45523-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 45523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 45523-2022.docx", "A 45523-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 45523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 45523-2022.docx", "A 45523-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 45523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 45523-2022.docx", "A 45523-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 45523-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 45523-2022.docx", "A 45523-2022")</f>
         <v/>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,27 +1851,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 19945-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 19945-2023.xlsx", "A 19945-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 19945-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 19945-2023.png", "A 19945-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 19945-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 19945-2023.docx", "A 19945-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 19945-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 19945-2023.docx", "A 19945-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 19945-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 19945-2023.docx", "A 19945-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 19945-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 19945-2023.docx", "A 19945-2023")</f>
         <v/>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1941,27 +1941,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 6077-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 6077-2019.xlsx", "A 6077-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 6077-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 6077-2019.png", "A 6077-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 6077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 6077-2019.docx", "A 6077-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 6077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 6077-2019.docx", "A 6077-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 6077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 6077-2019.docx", "A 6077-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 6077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 6077-2019.docx", "A 6077-2019")</f>
         <v/>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2026,27 +2026,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 31191-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 31191-2019.xlsx", "A 31191-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 31191-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 31191-2019.png", "A 31191-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 31191-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 31191-2019.docx", "A 31191-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 31191-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 31191-2019.docx", "A 31191-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 31191-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 31191-2019.docx", "A 31191-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 31191-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 31191-2019.docx", "A 31191-2019")</f>
         <v/>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2116,27 +2116,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 65258-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 65258-2019.xlsx", "A 65258-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 65258-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 65258-2019.png", "A 65258-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 65258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 65258-2019.docx", "A 65258-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 65258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 65258-2019.docx", "A 65258-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 65258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 65258-2019.docx", "A 65258-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 65258-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 65258-2019.docx", "A 65258-2019")</f>
         <v/>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,27 +2206,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 42542-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 42542-2020.xlsx", "A 42542-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 42542-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 42542-2020.png", "A 42542-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 42542-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 42542-2020.docx", "A 42542-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 42542-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 42542-2020.docx", "A 42542-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 42542-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 42542-2020.docx", "A 42542-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 42542-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 42542-2020.docx", "A 42542-2020")</f>
         <v/>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2296,27 +2296,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 62572-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 62572-2021.xlsx", "A 62572-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 62572-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 62572-2021.png", "A 62572-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 62572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 62572-2021.docx", "A 62572-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 62572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 62572-2021.docx", "A 62572-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 62572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 62572-2021.docx", "A 62572-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 62572-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 62572-2021.docx", "A 62572-2021")</f>
         <v/>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,27 +2386,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 20754-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 20754-2022.xlsx", "A 20754-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 20754-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 20754-2022.png", "A 20754-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 20754-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 20754-2022.docx", "A 20754-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 20754-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 20754-2022.docx", "A 20754-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 20754-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 20754-2022.docx", "A 20754-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 20754-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 20754-2022.docx", "A 20754-2022")</f>
         <v/>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,27 +2476,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 27105-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 27105-2022.xlsx", "A 27105-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 27105-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 27105-2022.png", "A 27105-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 27105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 27105-2022.docx", "A 27105-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 27105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 27105-2022.docx", "A 27105-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 27105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 27105-2022.docx", "A 27105-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 27105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 27105-2022.docx", "A 27105-2022")</f>
         <v/>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,27 +2561,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 51522-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 51522-2022.xlsx", "A 51522-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 51522-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 51522-2022.png", "A 51522-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 51522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 51522-2022.docx", "A 51522-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 51522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 51522-2022.docx", "A 51522-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 51522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 51522-2022.docx", "A 51522-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 51522-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 51522-2022.docx", "A 51522-2022")</f>
         <v/>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2651,27 +2651,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 37427-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/artfynd/A 37427-2023.xlsx", "A 37427-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 37427-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/kartor/A 37427-2023.png", "A 37427-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 37427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 37427-2023.docx", "A 37427-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 37427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 37427-2023.docx", "A 37427-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 37427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 37427-2023.docx", "A 37427-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 37427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 37427-2023.docx", "A 37427-2023")</f>
         <v/>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26057,23 +26057,23 @@
       </c>
       <c r="R415" s="2" t="inlineStr"/>
       <c r="U415">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 23045-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 23045-2023.png", "A 23045-2023")</f>
         <v/>
       </c>
       <c r="V415">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 23045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 23045-2023.docx", "A 23045-2023")</f>
         <v/>
       </c>
       <c r="W415">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 23045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 23045-2023.docx", "A 23045-2023")</f>
         <v/>
       </c>
       <c r="X415">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 23045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 23045-2023.docx", "A 23045-2023")</f>
         <v/>
       </c>
       <c r="Y415">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 23045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 23045-2023.docx", "A 23045-2023")</f>
         <v/>
       </c>
     </row>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26139,23 +26139,23 @@
       </c>
       <c r="R416" s="2" t="inlineStr"/>
       <c r="U416">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 23046-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/knärot/A 23046-2023.png", "A 23046-2023")</f>
         <v/>
       </c>
       <c r="V416">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 23046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomål/A 23046-2023.docx", "A 23046-2023")</f>
         <v/>
       </c>
       <c r="W416">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 23046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/klagomålsmail/A 23046-2023.docx", "A 23046-2023")</f>
         <v/>
       </c>
       <c r="X416">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 23046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsyn/A 23046-2023.docx", "A 23046-2023")</f>
         <v/>
       </c>
       <c r="Y416">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 23046-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FILIPSTAD/tillsynsmail/A 23046-2023.docx", "A 23046-2023")</f>
         <v/>
       </c>
     </row>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="R450" s="2" t="inlineStr"/>
     </row>
-    <row r="451">
+    <row r="451" ht="15" customHeight="1">
       <c r="A451" t="inlineStr">
         <is>
           <t>A 40362-2023</t>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28248,6 +28248,130 @@
         <v>0</v>
       </c>
       <c r="R451" s="2" t="inlineStr"/>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>A 43484-2023</t>
+        </is>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C452" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R452" s="2" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>A 43542-2023</t>
+        </is>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C453" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0</v>
+      </c>
+      <c r="O453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R453" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y453"/>
+  <dimension ref="A1:Y455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
       </c>
       <c r="R452" s="2" t="inlineStr"/>
     </row>
-    <row r="453">
+    <row r="453" ht="15" customHeight="1">
       <c r="A453" t="inlineStr">
         <is>
           <t>A 43542-2023</t>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28372,6 +28372,125 @@
         <v>0</v>
       </c>
       <c r="R453" s="2" t="inlineStr"/>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>A 44119-2023</t>
+        </is>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C454" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N454" t="n">
+        <v>0</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R454" s="2" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>A 44503-2023</t>
+        </is>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C455" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>0</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R455" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y455"/>
+  <dimension ref="A1:Y456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
       </c>
       <c r="R454" s="2" t="inlineStr"/>
     </row>
-    <row r="455">
+    <row r="455" ht="15" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
           <t>A 44503-2023</t>
@@ -28440,7 +28440,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28491,6 +28491,63 @@
         <v>0</v>
       </c>
       <c r="R455" s="2" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>A 44792-2023</t>
+        </is>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C456" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N456" t="n">
+        <v>0</v>
+      </c>
+      <c r="O456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R456" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y456"/>
+  <dimension ref="A1:Y458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
       </c>
       <c r="R455" s="2" t="inlineStr"/>
     </row>
-    <row r="456">
+    <row r="456" ht="15" customHeight="1">
       <c r="A456" t="inlineStr">
         <is>
           <t>A 44792-2023</t>
@@ -28502,7 +28502,7 @@
         <v>45190</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28548,6 +28548,125 @@
         <v>0</v>
       </c>
       <c r="R456" s="2" t="inlineStr"/>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>A 45987-2023</t>
+        </is>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C457" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N457" t="n">
+        <v>0</v>
+      </c>
+      <c r="O457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R457" s="2" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>A 46513-2023</t>
+        </is>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C458" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>FILIPSTAD</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0</v>
+      </c>
+      <c r="O458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R458" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45190</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45196</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>45197</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45190</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45196</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>45197</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45190</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45196</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>45197</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>43889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44816</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44448</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44006</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>43611</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>44355</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>45091</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44845</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>45054</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>43493</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>43640</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>43802</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44077</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44869</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>43318</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>43438</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>43473</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>43473</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>43473</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43473</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>43473</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43473</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>43473</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43474</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>43474</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>43474</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43479</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43488</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43489</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43493</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43494</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43497</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>43497</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43497</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>43497</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>43500</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>43501</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43507</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43509</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43509</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>43511</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>43515</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>43516</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>43528</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43528</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43539</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43553</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43553</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43570</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>43591</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>43602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43603</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43611</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43611</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43611</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>43611</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43616</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>43617</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>43640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43640</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>43647</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43657</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43663</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43677</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43705</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43710</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43717</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43720</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43720</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43738</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43738</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43738</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43739</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43755</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43755</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43797</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>43797</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>43797</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43802</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43802</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43802</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43803</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43803</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43810</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43816</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43818</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43829</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43829</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43860</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43860</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43872</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43872</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43879</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43880</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43882</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43882</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>43885</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43886</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43886</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43887</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43887</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>43896</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>43903</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43907</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43907</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43914</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43915</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43924</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>43924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43930</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43933</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43949</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43949</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43949</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43949</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>43949</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43949</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>43949</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>43949</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>43949</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>43949</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43949</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43959</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43964</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43964</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43985</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43987</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>43987</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43998</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44006</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44006</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>44006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44006</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>44008</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44008</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44027</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44028</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44028</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>44040</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44048</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44048</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44055</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44057</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>44067</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44070</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44070</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>44077</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>44077</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>44082</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44082</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44091</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44091</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>44097</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>44098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44109</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44112</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44112</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44114</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44114</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44123</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44125</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44132</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44132</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         <v>44132</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44134</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44138</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44145</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44146</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44151</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44151</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>44152</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>44152</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>44153</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>44161</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44163</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44167</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44169</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44169</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44169</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44169</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44169</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44176</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44176</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44179</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44182</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44186</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44186</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44187</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44208</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44214</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44224</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44224</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44224</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44224</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44225</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44228</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44228</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44229</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44229</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>44231</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>44235</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44235</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>44236</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>44241</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44258</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>44277</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>44300</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44300</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44300</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44327</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44327</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>44347</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18339,7 +18339,7 @@
         <v>44364</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44386</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>44386</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>44393</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44401</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44433</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>44433</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>44445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>44448</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>44449</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44453</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44454</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44470</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44470</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>44482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>44489</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>44496</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>44501</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44505</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44505</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44505</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44508</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44515</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44515</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44515</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>44515</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>44515</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>44524</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>44532</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>44536</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>44537</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44543</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44545</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44546</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>44552</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>44588</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>44596</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>44596</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44598</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44606</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44613</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44651</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44651</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44655</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44664</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44670</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44672</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44694</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44713</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44719</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44726</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44746</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44770</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44783</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44788</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44789</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44803</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44809</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44832</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44833</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44837</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22375,7 +22375,7 @@
         <v>44839</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>44840</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>44841</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44847</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44854</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>44860</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>44867</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44871</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>44880</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>44888</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         <v>44889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44893</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>44893</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44903</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44904</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44911</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44911</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44935</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44957</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44959</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44960</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44960</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44960</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44960</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44960</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44960</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>44963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>44966</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>44980</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44981</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>44981</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44987</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44993</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44993</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44994</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44994</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44998</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45006</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45009</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>45012</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45014</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45015</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45015</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45016</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45028</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45029</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45029</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45029</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>45040</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>45058</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45058</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45069</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45069</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>45071</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45072</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>45072</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>45075</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>45075</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45076</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45077</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45078</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45078</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45090</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45090</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45090</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45091</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45093</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45096</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45098</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>45099</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45099</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45106</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45106</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45106</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45107</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45110</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45114</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45114</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45114</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45114</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45114</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45120</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45124</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45124</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45124</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45124</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45152</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45152</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45153</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45162</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45169</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45184</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45184</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28383,7 +28383,7 @@
         <v>45188</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45189</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45190</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45196</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>45197</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
